--- a/ReadData/2021pumpkinData.xlsx
+++ b/ReadData/2021pumpkinData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suggb\Documents\ST542\Project\PumpkinProject\ReadData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCA1617-9945-49C0-8B50-E002F78CC966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC41739-7ED7-4DB0-A581-DA4AE36BACAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" xr2:uid="{292BCA13-FCFA-1B45-9793-B1FB83A3C53A}"/>
+    <workbookView xWindow="11424" yWindow="-3336" windowWidth="23232" windowHeight="12552" tabRatio="854" xr2:uid="{292BCA13-FCFA-1B45-9793-B1FB83A3C53A}"/>
   </bookViews>
   <sheets>
     <sheet name="Spacing Weights (lbs)" sheetId="3" r:id="rId1"/>
@@ -287,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -337,6 +337,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2706,8 +2709,8 @@
       <c r="D18" s="11">
         <v>20</v>
       </c>
-      <c r="E18" s="11">
-        <v>10</v>
+      <c r="E18" s="21">
+        <v>20</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>34</v>
@@ -10116,8 +10119,8 @@
       <c r="D18" s="11">
         <v>20</v>
       </c>
-      <c r="E18" s="11">
-        <v>10</v>
+      <c r="E18" s="21">
+        <v>20</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>34</v>
@@ -12157,7 +12160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC9CF31-603C-2E44-864F-980C57F55F59}">
   <dimension ref="A1:BD37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
@@ -14196,8 +14201,8 @@
       <c r="D18" s="11">
         <v>20</v>
       </c>
-      <c r="E18" s="11">
-        <v>10</v>
+      <c r="E18" s="21">
+        <v>20</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>34</v>
@@ -21109,8 +21114,8 @@
       <c r="F14" s="4">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>15.2</v>
+      <c r="G14" s="20">
+        <v>13.2</v>
       </c>
       <c r="H14" s="3">
         <v>12.7</v>
